--- a/biology/Zoologie/Callophrys_johnsoni/Callophrys_johnsoni.xlsx
+++ b/biology/Zoologie/Callophrys_johnsoni/Callophrys_johnsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys johnsoni est une espèce nord-américaine de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Callophrys johnsoni a été décrite par Henry Skinner en 1904, sous le nom initial de Thecla johnsoni[1].
-Synonymes : Mitoura johnsoni, Loranthomitoura johnsoni[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Callophrys johnsoni a été décrite par Henry Skinner en 1904, sous le nom initial de Thecla johnsoni.
+Synonymes : Mitoura johnsoni, Loranthomitoura johnsoni.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callophrys johnsoni se nomme en anglais Johnson's Hairstreak[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys johnsoni se nomme en anglais Johnson's Hairstreak,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon d'une envergure de 25 mm à 35 mm avec une fine queue coudée à chaque aile postérieure présente un dessus orange doré à marron doré à veines marron[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon d'une envergure de 25 mm à 35 mm avec une fine queue coudée à chaque aile postérieure présente un dessus orange doré à marron doré à veines marron,.
 Le verso du même marron doré est ornementé d'une fine ligne blanche.
 </t>
         </is>
@@ -608,11 +626,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chrysalide qui hiverne[3].
-Callophrys johnsoni vole en une génération de mai à juillet[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Arceuthobium campylopodum, Arceuthobium tsugense et Tsuga heterophylla[1],[2]. Arceuthobium campylopodum croit sur les conifères[3].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chrysalide qui hiverne.
+Callophrys johnsoni vole en une génération de mai à juillet.
 </t>
         </is>
       </c>
@@ -638,18 +659,127 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Arceuthobium campylopodum, Arceuthobium tsugense et Tsuga heterophylla,. Arceuthobium campylopodum croit sur les conifères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callophrys_johnsoni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_johnsoni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callophrys johnsoni est présent dans l'ouest de l'Amérique du Nord dans le sud de la Colombie-Britannique au Canada, dans l'État de Washington, en Oregon et en Californie[3].
-Biotope
-Il réside dans les forêts de conifères[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys johnsoni est présent dans l'ouest de l'Amérique du Nord dans le sud de la Colombie-Britannique au Canada, dans l'État de Washington, en Oregon et en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callophrys_johnsoni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_johnsoni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts de conifères.
 Sur les autres projets Wikimedia :
 Callophrys johnsoni, sur Wikimedia CommonsCallophrys johnsoni, sur Wikispecies
-Protection
-Callophrys johnsoni est inscrit en danger en Colombie-Britannique[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callophrys_johnsoni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_johnsoni</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys johnsoni est inscrit en danger en Colombie-Britannique.
 </t>
         </is>
       </c>
